--- a/data_UDS.xlsx
+++ b/data_UDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NdMaf\OneDrive\Escritorio\MODALIDAD FAMILIAR\2023\FUNDESTAR\MEDIDAS ANTROPOMETRICAS\DIAGNOSTICOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\back_py\api_python_mianthro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11A435BA-FB4E-41CE-A082-1DBDE94C1447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA0D33C-BAE1-46FC-9CA3-55FA716B4253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CCBE073D-DDAB-48D2-8660-E5CDDCAF3419}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{CCBE073D-DDAB-48D2-8660-E5CDDCAF3419}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>talla</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>11.7</t>
+  </si>
+  <si>
+    <t>genero</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -714,16 +714,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1">
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -731,16 +731,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -748,16 +748,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1">
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -765,16 +765,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -782,16 +782,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1">
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -799,16 +799,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -816,16 +816,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1">
         <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -833,16 +833,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,16 +850,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -867,16 +867,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -884,16 +884,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -901,16 +901,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1">
         <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -918,16 +918,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1">
         <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -935,16 +935,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -952,16 +952,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -969,16 +969,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1">
         <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -986,16 +986,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1003,16 +1003,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1020,16 +1020,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1037,16 +1037,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1054,16 +1054,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1071,16 +1071,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1">
         <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1088,16 +1088,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1105,16 +1105,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1122,16 +1122,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1">
         <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
@@ -1148,7 +1148,7 @@
         <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1156,16 +1156,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1173,16 +1173,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1">
         <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,16 +1190,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1207,16 +1207,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1">
         <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1224,16 +1224,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,16 +1241,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1258,16 +1258,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1275,16 +1275,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1292,7 +1292,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1">
         <v>14</v>
@@ -1301,7 +1301,7 @@
         <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1309,16 +1309,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="1">
         <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
